--- a/05_Entregable 3/maate_extra/intermedios/recopilacion_Retenciones_9mayo2025_v2.0.xlsx
+++ b/05_Entregable 3/maate_extra/intermedios/recopilacion_Retenciones_9mayo2025_v2.0.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd HH:mm:ss UTC"/>
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
   </numFmts>
   <fonts count="2">
     <font>
